--- a/pred_ohlcv/54_21/2019-10-30 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 IOST ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>-661063.8446000003</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3812471.02930108</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4481477.979701079</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4001479.265901079</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3473777.872001079</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3473777.872001079</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3605103.629801079</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3888037.757201079</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6743520.138279704</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5669543.470479704</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>6141273.172279704</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8617974.240461523</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>7312966.117238534</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>6417224.798138534</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>6730806.021238534</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>7848848.072956716</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>9372565.272696579</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>9965479.489348495</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>9046831.960188005</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7908824.434188005</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>8056732.904788004</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>7757067.985688005</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>8003971.056788005</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>8003886.680688005</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>8106774.861688005</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>8447948.194357414</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>8199520.959157414</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>8199520.959157414</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>8054113.143057413</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>8211612.692457413</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>7591952.717157413</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>8266035.230857413</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>8827876.83791855</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>8322067.312318549</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>9392092.67231855</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10360713.65301855</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>10796903.43751855</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>10875461.19911855</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>23541334.9169121</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>23741121.5919121</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>23295809.6612121</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>23459865.6444121</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>23555872.7428121</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>23555773.7329121</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>23444194.6645121</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>23316778.7318121</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>23638587.1086121</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>23481399.0040121</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>23299537.0866121</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>23855280.7148121</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>24924805.14323468</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>24704964.83823468</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>24717088.59453468</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>23429562.62803468</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>23705115.94533468</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>23722095.75433468</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>23402475.02513468</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>23142033.40623467</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>22715643.52703467</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>22715643.52703467</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>22893163.09213467</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>23280609.45703467</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>23301772.78963467</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>23257667.96133468</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>23359815.43573467</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>23352034.02723467</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>23840527.42043467</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>23747756.00433467</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>23409995.24703467</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>23566936.56203467</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>23746398.74073467</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>23757989.74073467</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>23754856.98973468</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>23754622.98973468</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 IOST ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>-661063.8446000003</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-550305.1900000003</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-841193.2084000004</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3812471.02930108</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4481477.979701079</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4001479.265901079</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3473777.872001079</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3473777.872001079</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3605103.629801079</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3888037.757201079</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6743520.138279704</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5669543.470479704</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>6141273.172279704</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8617974.240461523</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>7312966.117238534</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>6417224.798138534</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>6730806.021238534</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>7848848.072956716</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>9372565.272696579</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>9965479.489348495</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>9046831.960188005</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7908824.434188005</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>8056732.904788004</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>7757067.985688005</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>8003971.056788005</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>8003886.680688005</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>8106774.861688005</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>8447948.194357414</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>8199520.959157414</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>8199520.959157414</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>8054113.143057413</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>8211612.692457413</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>7591952.717157413</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>8266035.230857413</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>8827876.83791855</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>8322067.312318549</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>9392092.67231855</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10360713.65301855</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>10796903.43751855</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>10875461.19911855</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>21103682.26244609</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>23792497.2263121</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>23541334.9169121</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>23741121.5919121</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>23295809.6612121</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>23459865.6444121</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>23555872.7428121</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>23555773.7329121</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>23444194.6645121</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>23316778.7318121</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>23638587.1086121</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>23481399.0040121</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>23299537.0866121</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>23855280.7148121</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>24924805.14323468</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>24704964.83823468</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>24717088.59453468</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>23429562.62803468</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>23705115.94533468</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>23722095.75433468</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>23402475.02513468</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>23142033.40623467</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>22715643.52703467</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>23280609.45703467</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>23301772.78963467</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>23257667.96133468</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
